--- a/import_test/rs_test.xlsx
+++ b/import_test/rs_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\election-s-prediction\import_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A97D88-1E40-48D7-B4D9-833A5BA22ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF1D597-51EF-4D43-B789-E43042ADCB85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="38700" windowHeight="15435" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
+    <workbookView xWindow="16875" yWindow="3360" windowWidth="30945" windowHeight="15015" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -634,27 +634,28 @@
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="F11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
